--- a/biology/Médecine/Main_neurologique/Main_neurologique.xlsx
+++ b/biology/Médecine/Main_neurologique/Main_neurologique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La désignation de main neurologique regroupe un certain nombre d'atteintes de la main d'origine neurologique.
 Il peut s'agir de paralysies d'origine périphérique, ou d'atteintes d'origine centrale, qu'elles soient motrices (paralysie d'origine centrale, main parkinsonienne, mouvements anormaux), sensitives, ou d'ordre neuropsychologique (main frontale, « main étrangère »).
@@ -512,7 +524,9 @@
           <t>Paralysies d'origine périphérique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'atteinte peut se situer à différents niveaux : 
 un des nerfs (ou troncs nerveux) du membre supérieur (atteinte dite « tronculaire ») :
@@ -556,20 +570,200 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Paralysies d'origine centrale
-Par atteinte de la voie pyramidale. 
+          <t>Paralysies d'origine centrale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par atteinte de la voie pyramidale. 
 Le déficit moteur prédomine sur les muscles extenseurs de la main. Une hypertonie peut survenir, en flexion : au maximum, déformation de la main dite « en poing », avec quasi impossibilité de déplier les doigts.
-Troubles d'origine sensitive
-Une atteinte du lobe cérébral de la sensibilité, le lobe pariétal, peut entraîner une maladresse et une instabilité de la main, du fait des troubles sensitifs, notamment de la sensibilité profonde : main instable ataxique. Si l'atteinte est au niveau de l'hémisphère cérébral dit « mineur » (droit pour les droitiers), une négligence peut être constatée. 
-Main frontale
-En raison d'une attente du lobe frontal. Troubles moteurs anormaux tels que des comportements d'agrippement, d'aimantation, d'utilisation.
-« Main étrangère »
-Il s'agit d'un phénomène très particulier consistant en l'impression, en dehors du contrôle visuel, qu'une de ses mains est étrangère à soi. Ce trouble peut être observé en cas de lésion du corps calleux (structure qui réunit entre eux les deux hémisphères cérébraux), ou éventuellement en cas de lésion du lobe pariétal.
-Main parkinsonienne
-Elle est caractérisée par une attitude particulière : main en légère hyper-extension sur l'avant-bras, et pronation, les doigts fléchis. On peut constater une certaine raideur lorsqu'on essaie de mobiliser la main. Cette hypertonie peut apparaître lorsque le sujet est en position déséquilibrée (manœuvre de Froment), ou lorsqu'il serre la main controlatérale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Main_neurologique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Main_neurologique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Atteintes d'origine centrale</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Troubles d'origine sensitive</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une atteinte du lobe cérébral de la sensibilité, le lobe pariétal, peut entraîner une maladresse et une instabilité de la main, du fait des troubles sensitifs, notamment de la sensibilité profonde : main instable ataxique. Si l'atteinte est au niveau de l'hémisphère cérébral dit « mineur » (droit pour les droitiers), une négligence peut être constatée. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Main_neurologique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Main_neurologique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Atteintes d'origine centrale</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Main frontale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En raison d'une attente du lobe frontal. Troubles moteurs anormaux tels que des comportements d'agrippement, d'aimantation, d'utilisation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Main_neurologique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Main_neurologique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Atteintes d'origine centrale</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>« Main étrangère »</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un phénomène très particulier consistant en l'impression, en dehors du contrôle visuel, qu'une de ses mains est étrangère à soi. Ce trouble peut être observé en cas de lésion du corps calleux (structure qui réunit entre eux les deux hémisphères cérébraux), ou éventuellement en cas de lésion du lobe pariétal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Main_neurologique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Main_neurologique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Atteintes d'origine centrale</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Main parkinsonienne</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est caractérisée par une attitude particulière : main en légère hyper-extension sur l'avant-bras, et pronation, les doigts fléchis. On peut constater une certaine raideur lorsqu'on essaie de mobiliser la main. Cette hypertonie peut apparaître lorsque le sujet est en position déséquilibrée (manœuvre de Froment), ou lorsqu'il serre la main controlatérale.
 La main peut être animée par un léger tremblement : celui-ci survient au repos, mais aussi quand le sujet marche, bras ballant le long du corps. L'apparition du tremblement peut être déclenchée, ou son intensité accrue, lors d'un effort intellectuel, tel que le calcul mental. 
-Mouvements anormaux
-La main peut être le siège de mouvements anormaux :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Main_neurologique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Main_neurologique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Atteintes d'origine centrale</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Mouvements anormaux</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>La main peut être le siège de mouvements anormaux :
 choréiques
 athétosiques
 dystoniques : en particulier la crampe des écrivains.
